--- a/Momentum/APO034-2022/Cenários de Testes/APO034-2022.xlsx
+++ b/Momentum/APO034-2022/Cenários de Testes/APO034-2022.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\OneDrive - SMN Informatica LTDA\Área de Trabalho\Arquivos Pessoais\Arquivos_Pessoais\Momentum\APO034-2022\Cenários de Testes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\OneDrive - SMN Informatica LTDA\Área de Trabalho\Personal Archives\-Personal-Archives\Momentum\APO034-2022\Cenários de Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718D8D09-9986-488F-9139-A647354040AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35246413-428E-40A1-B03B-A67B03FB65A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1C0532E3-2B0A-4678-9C16-74402CA66739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{1C0532E3-2B0A-4678-9C16-74402CA66739}"/>
   </bookViews>
   <sheets>
     <sheet name="Aprova-Reprova " sheetId="1" r:id="rId1"/>
     <sheet name="Ações por Nivel de Importância" sheetId="2" r:id="rId2"/>
     <sheet name="Análise de Casos Enviados ao Nú" sheetId="3" r:id="rId3"/>
     <sheet name="Relatório" sheetId="4" r:id="rId4"/>
+    <sheet name="Relatório (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -129,13 +130,37 @@
   </si>
   <si>
     <t>Clicar no botão "Lupa", localizado no final do modal.</t>
+  </si>
+  <si>
+    <t>Será aberto o novo consulta cliente com o EQL selecionado.</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em Aprova/Reprova Mudança de Situação</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em  Ações por nível de Importância</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em Análise Casos Enviado - Nucleo</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em Relatório Dinâmico das Ações de Terceiros</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em Processos</t>
+  </si>
+  <si>
+    <t>Clicar no icone de consulta cliente em Análise Casos Enviados - Jurídico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -258,45 +290,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,95 +762,95 @@
     <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -747,95 +882,95 @@
     <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -867,61 +1002,61 @@
     <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -937,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104BCAD3-42A4-4B9A-9230-9A04280099B7}">
   <dimension ref="D1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -953,95 +1088,95 @@
     <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1051,4 +1186,105 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F4BB4-7F74-49EF-B31F-DF706E0B644A}">
+  <dimension ref="D1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>